--- a/XPATH-CSS.xlsx
+++ b/XPATH-CSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>CSS</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>2. $x("//*[@class='example']//li[3]")          $x("//*[@class='example']//a[contains(text(),'Керхер пароочиститель')]")</t>
-  </si>
-  <si>
-    <t>Зайдите на главную  страницу https://f.ua/ :</t>
   </si>
   <si>
     <r>
@@ -230,9 +227,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Перейдите в категорию на станицу https://f.ua/shop/perforatory/ </t>
-  </si>
-  <si>
     <r>
       <t>5)</t>
     </r>
@@ -399,9 +393,6 @@
     <t>$x("//*[@class='item']")</t>
   </si>
   <si>
-    <t>$(".item .item_container i:contains(фо)")</t>
-  </si>
-  <si>
     <t>$(".item .item_container i:contains(ет):first")</t>
   </si>
   <si>
@@ -412,13 +403,137 @@
   </si>
   <si>
     <t>$x("//*[@class='chechboxes']//a[contains(text(),'профессиональный')]/ancestor::*[contains(@class,'properties_block')]")</t>
+  </si>
+  <si>
+    <t>$(".properties_block div:contains(Выберите бренд) + ul .filter_brand:contains(s),.filter_brand:contains(m)")</t>
+  </si>
+  <si>
+    <t>$x("//div[@class='catalog_product_list view_table not_animated']/div[@class='catalog_item'][@data-pbrand='Vertex']")</t>
+  </si>
+  <si>
+    <t>$x("//div[@class='catalog_product_list view_table not_animated']/div[@class='catalog_item']//div[@class='container']//div[@class='comments'][contains(text(), '0 отзывов')]")</t>
+  </si>
+  <si>
+    <t>$(".properties_block .chechboxes li:nth-child(2)")</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Як краще і правильно, бо обидва доють той самий результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1)   $x("//div[@class='catalog_product_list view_table not_animated']/div[@class='catalog_item']//div[@class='container']//div[@class='additional_info params']//ul[@class='sv']/li[contains(text(), '850 Вт')]")
+2)   $x("//li[contains(text(), '850 Вт')]")</t>
+    </r>
+  </si>
+  <si>
+    <t>$x("//*[@class='item_container']//i[contains(text(),'фо')]")</t>
+  </si>
+  <si>
+    <t>$(".item_container i:contains(фо)")</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Зайдите на главную  страницу</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  https://f.ua/ :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Перейдите в категорию на станицу</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://f.ua/shop/perforatory/ </t>
+    </r>
+  </si>
+  <si>
+    <t>$x("//*[@class='item_container']//i[contains(text(),'ет')]")[0]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не працює, не розумію чому:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+$x("//*[@class='item_container']//i[contains(text(),'ет')]")[last()]</t>
+    </r>
+  </si>
+  <si>
+    <t>$x("//*[@class='properties_block']//div[contains(text(),'Выберите бренд')]//ul//*[@class='filter_brand'][contains(text(),'s' or 'm')]")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Завдання, що були на занятті   https://f.ua/shop/mobilnye-telefony/
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +579,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -486,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -504,6 +642,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,16 +935,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="93.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="97.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="163.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
@@ -811,6 +958,13 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -944,62 +1098,62 @@
     </row>
     <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1012,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1020,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,7 +1185,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1039,15 +1196,21 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1055,38 +1218,59 @@
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>6</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>7</v>
       </c>
+      <c r="D46" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>8</v>
       </c>
+      <c r="D47" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>10</v>
       </c>
+      <c r="D49" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" display="https://f.ua/"/>
     <hyperlink ref="B29" r:id="rId2" display="https://f.ua/shop/perforatory/"/>
